--- a/compileTest/py/config.xlsx
+++ b/compileTest/py/config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14840" activeTab="1"/>
+    <workbookView windowWidth="32540" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="2" r:id="rId1"/>
     <sheet name="Ios" sheetId="1" r:id="rId2"/>
     <sheet name="Android" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>Id</t>
   </si>
@@ -137,13 +137,7 @@
     <t>编译unity工程目录</t>
   </si>
   <si>
-    <t>maojingwei@bloks.com</t>
-  </si>
-  <si>
     <t>unity账号</t>
-  </si>
-  <si>
-    <t>Bubu123456</t>
   </si>
   <si>
     <t>密码</t>
@@ -262,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -284,6 +278,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -292,24 +294,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,24 +331,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,70 +408,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,25 +423,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,25 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,127 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,6 +644,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -665,21 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -687,21 +696,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,124 +719,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,26 +845,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +872,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1253,22 +1250,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>11111</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1276,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1287,10 +1284,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1298,15 +1295,15 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="maojingwei@bloks.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="1111"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1318,7 +1315,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1338,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1370,31 +1367,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1428,25 +1425,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -1455,25 +1452,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1"/>
     </row>
